--- a/output/item/소파/2021-12-19_소파.xlsx
+++ b/output/item/소파/2021-12-19_소파.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>웰퍼니쳐 생활방수 아쿠아텍스 패브릭 에반 카우치 4인용 소파</t>
+          <t>우아미 루앙 3인용 소파</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26221932522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25746649526</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2622193/26221932522.20211111103846.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574664/25746649526.20210629120050.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>548500</t>
+          <t>195000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,12 +536,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>웰퍼니쳐</t>
+          <t>우아미</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>아이웰</t>
+          <t>우아미</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>브리엔츠가구 베니스 4인용 아쿠아매직텍스 패브릭 소파</t>
+          <t>웰퍼니쳐 생활방수 아쿠아텍스 패브릭 에반 카우치 4인용 소파</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27713975522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26221932522</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2771397/27713975522.20210805125629.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2622193/26221932522.20211111103846.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>548500</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,12 +602,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>브리엔츠가구</t>
+          <t>웰퍼니쳐</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>브리엔츠가구</t>
+          <t>아이웰</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>오스본가구 원조 라티나 구스다운 4인용 가죽소파</t>
+          <t>브리엔츠가구 베니스 4인용 아쿠아매직텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16990834763</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27713975522</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1699083/16990834763.20191016111147.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2771397/27713975522.20210805125629.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -668,10 +668,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>오스본가구</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>브리엔츠가구</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>브리엔츠가구</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -689,7 +693,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>가죽소파</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
@@ -699,22 +703,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>우아미 루앙 3인용 소파</t>
+          <t>오스본가구 원조 라티나 구스다운 4인용 가죽소파</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25746649526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16990834763</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574664/25746649526.20210629120050.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1699083/16990834763.20191016111147.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>195000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -730,14 +734,10 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>우아미</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>우아미</t>
-        </is>
-      </c>
+          <t>오스본가구</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -755,7 +755,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>패브릭소파</t>
+          <t>가죽소파</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>195030</t>
+          <t>195020</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>230100</t>
+          <t>230090</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1199010</t>
+          <t>1198960</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -3509,22 +3509,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>이케아 ANGERSBY 2인용 소파</t>
+          <t>까르엠가구 마티니 가죽 4인용 카우치 소파</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27409925522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25056615522</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740992/27409925522.20210602171609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2505661/25056615522.20210629120953.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>113000</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>까르엠가구</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>패브릭소파</t>
+          <t>인조가죽소파</t>
         </is>
       </c>
     </row>
@@ -3575,22 +3575,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>까르엠가구 마티니 가죽 4인용 카우치 소파</t>
+          <t>THE BUZZ 니올 스타일클린 워셔블 패브릭 4인 소파</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25056615522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24878475522</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2505661/25056615522.20210629120953.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2487847/24878475522.20210618130940.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3606,12 +3606,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
+          <t>THE BUZZ</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>까르엠</t>
+          <t>버즈</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>인조가죽소파</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
@@ -3641,22 +3641,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>THE BUZZ 니올 스타일클린 워셔블 패브릭 4인 소파</t>
+          <t>까르엠가구 퓨리온 4인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24878475522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29099415586</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2487847/24878475522.20210618130940.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2909941/29099415586.20211004210125.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>469000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3672,12 +3672,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>THE BUZZ</t>
+          <t>까르엠가구</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>버즈</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3707,22 +3707,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>까르엠가구 퓨리온 4인용 아쿠아텍스 패브릭 소파</t>
+          <t>까르엠가구 타이니 아쿠아텍스 3인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29099415586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28692884554</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2909941/29099415586.20211004210125.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2869288/28692884554.20210903104403.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>469000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3773,22 +3773,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>까르엠가구 타이니 아쿠아텍스 3인용 패브릭 소파</t>
+          <t>까르엠가구 퓨리온 3인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28692884554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29099419586</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2869288/28692884554.20210903104403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2909941/29099419586.20211004210257.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3839,22 +3839,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>까르엠가구 퓨리온 3인용 아쿠아텍스 패브릭 소파</t>
+          <t>폴로까사 로한 4인용 아쿠아텍스 스웨이드 패브릭소파</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29099419586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18029130472</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2909941/29099419586.20211004210257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1802913/18029130472.20201216110631.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>447300</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3870,14 +3870,10 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>까르엠</t>
-        </is>
-      </c>
+          <t>폴로까사</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3971,22 +3967,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>에보니아 뮤즈 2인 소파 스툴포함</t>
+          <t>이케아 ANGERSBY 2인용 소파</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17309714958</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27409925522</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1730971/17309714958.20211022151804.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740992/27409925522.20210602171609.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>101240</t>
+          <t>113000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -4002,12 +3998,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>에보니아</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>에보니아</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4037,22 +4033,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>까르엠가구 라우츠 4인용 아쿠아텍스 패브릭 소파</t>
+          <t>에보니아 뮤즈 2인 소파 스툴포함</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28884074586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17309714958</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2888407/28884074586.20210917091500.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1730971/17309714958.20211022151804.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>101240</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -4068,12 +4064,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
+          <t>에보니아</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>까르엠</t>
+          <t>에보니아</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4103,22 +4099,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>까르엠가구 라우츠 3인용 아쿠아텍스 패브릭 소파</t>
+          <t>까르엠가구 라우츠 4인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28883941586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28884074586</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2888394/28883941586.20210917091335.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2888407/28884074586.20210917091500.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4235,22 +4231,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>까르엠가구 모노 3인 아쿠아텍스모듈 소파 일반형 + 카우치형 + 팔걸이</t>
+          <t>까르엠가구 라우츠 3인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29940912618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28883941586</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2994091/29940912618.20211203203732.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2888394/28883941586.20210917091335.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4301,22 +4297,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>레트로하우스 쓰담 스윙 4인용 패브릭 소파</t>
+          <t>까르엠가구 모노 3인 아쿠아텍스모듈 소파 일반형 + 카우치형 + 팔걸이</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27877044523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29940912618</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2787704/27877044523.20210708152850.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2994091/29940912618.20211203203732.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4332,12 +4328,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>까르엠가구</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4367,22 +4363,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>서광퍼니처 에이든 아쿠아텍스 이지클린 4인용 소파</t>
+          <t>레트로하우스 쓰담 스윙 4인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28032904522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27877044523</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2803290/28032904522.20210716173221.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2787704/27877044523.20210708152850.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>457000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4398,12 +4394,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>서광퍼니처</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>서광퍼니처</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4433,22 +4429,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>THE BUZZ 클레멘티 3인 + 카우치 폴쉬 린넨 패브릭소파 PL103</t>
+          <t>서광퍼니처 에이든 아쿠아텍스 이지클린 4인용 소파</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27471438523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28032904522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2747143/27471438523.20210607103948.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2803290/28032904522.20210716173221.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1872000</t>
+          <t>457000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4464,12 +4460,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>THE BUZZ</t>
+          <t>서광퍼니처</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>버즈</t>
+          <t>서광퍼니처</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4499,22 +4495,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>레이디가구 주피 패브릭 2인용 소파베드</t>
+          <t>THE BUZZ 클레멘티 3인 + 카우치 폴쉬 린넨 패브릭소파 PL103</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11291618429</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27471438523</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1129161/11291618429.20210113172637.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2747143/27471438523.20210607103948.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>139900</t>
+          <t>1872000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4530,12 +4526,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>레이디가구</t>
+          <t>THE BUZZ</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>오하임</t>
+          <t>버즈</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4555,7 +4551,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>소파베드</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
@@ -4631,22 +4627,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>자코모 노바 4인 천연면피 소가죽 소파 + 스툴</t>
+          <t>브리엔츠가구 아테네 4인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26459618523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29832225618</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2645961/26459618523.20210617112648.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983222/29832225618.20211125114347.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1605450</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4662,12 +4658,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>자코모</t>
+          <t>브리엔츠가구</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>자코모</t>
+          <t>브리엔츠가구</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4687,7 +4683,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>가죽소파</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
@@ -4697,22 +4693,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>브리엔츠가구 아테네 4인용 아쿠아텍스 패브릭 소파</t>
+          <t>자코모 노바 4인 천연면피 소가죽 소파 + 스툴</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29832225618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26459618523</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983222/29832225618.20211125114347.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2645961/26459618523.20210617112648.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>1605450</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4728,12 +4724,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>브리엔츠가구</t>
+          <t>자코모</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>브리엔츠가구</t>
+          <t>자코모</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4753,7 +4749,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>패브릭소파</t>
+          <t>가죽소파</t>
         </is>
       </c>
     </row>
@@ -4829,22 +4825,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>노르웨이숲 아쿠아텍스 스웨이드 생활방수 기능성 패브릭 4인용 소파</t>
+          <t>레이디가구 주피 패브릭 2인용 소파베드</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26026862524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11291618429</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2602686/26026862524.20210223113936.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1129161/11291618429.20210113172637.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>139900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4860,12 +4856,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>노르웨이숲</t>
+          <t>레이디가구</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>노르웨이숲</t>
+          <t>오하임</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4885,7 +4881,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>패브릭소파</t>
+          <t>소파베드</t>
         </is>
       </c>
     </row>
@@ -4961,22 +4957,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>THE BUZZ 니드 확장형 아쿠아케어 풀커버 패브릭소파</t>
+          <t>노르웨이숲 아쿠아텍스 스웨이드 생활방수 기능성 패브릭 4인용 소파</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21997608213</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26026862524</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2199760/21997608213.20200218150842.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2602686/26026862524.20210223113936.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1730000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4992,12 +4988,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>THE BUZZ</t>
+          <t>노르웨이숲</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>버즈</t>
+          <t>노르웨이숲</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5027,22 +5023,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>폴로까사 로한 4인용 아쿠아텍스 스웨이드 패브릭소파</t>
+          <t>텐스페이스 위즈 2인 좌식 소파베드</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18029130472</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15720189847</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1802913/18029130472.20201216110631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1572018/15720189847.20181017153513.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>447300</t>
+          <t>117000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -5058,10 +5054,14 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>폴로까사</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>텐스페이스</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>텐스페이스</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>패브릭소파</t>
+          <t>소파베드</t>
         </is>
       </c>
     </row>
@@ -5089,22 +5089,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>듀커 DK052 3인용 풀커버 패브릭 소파 + 스툴</t>
+          <t>THE BUZZ 니드 확장형 아쿠아케어 풀커버 패브릭소파</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14992509857</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21997608213</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1499250/14992509857.20200903164200.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2199760/21997608213.20200218150842.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>1730000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -5120,12 +5120,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>듀커</t>
+          <t>THE BUZZ</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>듀커</t>
+          <t>버즈</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5155,22 +5155,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>텐스페이스 위즈 2인 좌식 소파베드</t>
+          <t>듀커 DK052 3인용 풀커버 패브릭 소파 + 스툴</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15720189847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14992509857</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1572018/15720189847.20181017153513.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1499250/14992509857.20200903164200.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>117000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5186,12 +5186,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>텐스페이스</t>
+          <t>듀커</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>텐스페이스</t>
+          <t>듀커</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>소파베드</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
@@ -5551,22 +5551,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>까사미아 캄포 베이직 4인 소파</t>
+          <t>퍼니코 레브 샤무벨벳 카우치 소파베드</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29409694625</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17072130745</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2940969/29409694625.20211026104332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1707213/17072130745.20200929163635.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1592950</t>
+          <t>172000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5582,12 +5582,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>까사미아</t>
+          <t>퍼니코</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>까사미아</t>
+          <t>퍼니코가구</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>패브릭소파</t>
+          <t>소파베드</t>
         </is>
       </c>
     </row>
@@ -5617,22 +5617,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>퍼니코 레브 샤무벨벳 카우치 소파베드</t>
+          <t>까사미아 캄포 베이직 4인 소파</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17072130745</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29409694625</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1707213/17072130745.20200929163635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2940969/29409694625.20211026104332.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>172000</t>
+          <t>1592950</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>퍼니코</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>퍼니코가구</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>소파베드</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
@@ -6331,22 +6331,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>폴로까사 플란 4인용 아쿠아텍스 스웨이드 코너형 패브릭 소파</t>
+          <t>보니애가구 엘사 3인용 소파</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27423203524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11550749556</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2742320/27423203524.20211022152029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1155074/11550749556.20180104115021.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>691000</t>
+          <t>178000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6362,12 +6362,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>폴로까사</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>폴로까사</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>패브릭소파</t>
+          <t>인조가죽소파</t>
         </is>
       </c>
     </row>
@@ -6397,22 +6397,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>보니애가구 엘사 3인용 소파</t>
+          <t>삼익가구 루미 3인용 가죽 접이식 소파베드</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11550749556</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15045267166</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1155074/11550749556.20180104115021.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1504526/15045267166.20191115152419.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>178000</t>
+          <t>173340</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6428,12 +6428,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>삼익가구</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>삼익가구</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>인조가죽소파</t>
+          <t>소파베드</t>
         </is>
       </c>
     </row>
@@ -6463,22 +6463,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>삼익가구 루미 3인용 가죽 접이식 소파베드</t>
+          <t>라자가구 위드 글램 아쿠아텍스 소파 2인용 cw145</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15045267166</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393364522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1504526/15045267166.20191115152419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639336/26393364522.20210317141343.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>173340</t>
+          <t>195000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>삼익가구</t>
+          <t>라자가구</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>삼익가구</t>
+          <t>라자가구</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>소파베드</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
@@ -6529,22 +6529,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>라자가구 위드 글램 아쿠아텍스 소파 2인용 cw145</t>
+          <t>에보니아 루비 2인 패브릭소파</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393364522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8014189833</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639336/26393364522.20210317141343.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8014189/8014189833.20210224113342.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>195000</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6560,12 +6560,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>라자가구</t>
+          <t>에보니아</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>라자가구</t>
+          <t>에보니아</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6595,22 +6595,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>리바트 온드 4인 패브릭 소파 와이드형</t>
+          <t>한샘 밀로 패브릭소파 4인용</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27317053523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24860218522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2731705/27317053523.20210526164548.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2486021/24860218522.20201116122035.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>995810</t>
+          <t>747150</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6626,12 +6626,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>리바트</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>현대리바트</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6661,22 +6661,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>에보니아 루비 2인 패브릭소파</t>
+          <t>파로마 델리 아쿠아텍스 패브릭 모듈 소파</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8014189833</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27775220527</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8014189/8014189833.20210224113342.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2777522/27775220527.20211005174020.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>255310</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>에보니아</t>
+          <t>파로마</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>에보니아</t>
+          <t>리샘</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6727,22 +6727,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한샘 밀로 패브릭소파 4인용</t>
+          <t>리바트 온드 4인 패브릭 소파 와이드형</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24860218522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27317053523</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2486021/24860218522.20201116122035.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2731705/27317053523.20210526164548.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>747150</t>
+          <t>995810</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6758,12 +6758,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>리바트</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>현대리바트</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6793,22 +6793,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>파로마 델리 아쿠아텍스 패브릭 모듈 소파</t>
+          <t>까사미아 캄포베이직 카우치 소파</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27775220527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29695944618</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2777522/27775220527.20211005174020.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2969594/29695944618.20211115143431.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>255310</t>
+          <t>1888850</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6824,12 +6824,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>파로마</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>리샘</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6925,22 +6925,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>에보니아 리버스 접이식 1인용 소파베드</t>
+          <t>폴로까사 플란 4인용 아쿠아텍스 스웨이드 코너형 패브릭 소파</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21241865504</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27423203524</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2124186/21241865504.20191106121009.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2742320/27423203524.20211022152029.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>189600</t>
+          <t>691000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6956,12 +6956,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>에보니아</t>
+          <t>폴로까사</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>에보니아</t>
+          <t>폴로까사</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>소파베드</t>
+          <t>패브릭소파</t>
         </is>
       </c>
     </row>
